--- a/CashFlow/DRE_cashflow.xlsx
+++ b/CashFlow/DRE_cashflow.xlsx
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>370602000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>362168000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>-182600000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-127825000.0</v>
@@ -634,10 +630,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>22169000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.0</v>
@@ -763,10 +757,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>602904000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>567312000.0</v>
@@ -892,10 +884,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>-479244000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>-526801000.0</v>
@@ -907,7 +897,7 @@
         <v>-424189000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-465098000.0</v>
+        <v>-378075000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-449890000.0</v>
@@ -1021,26 +1011,22 @@
           <t>Change in intangibles (net)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>-535289000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-593896000.0</v>
+        <v>-534287000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-403890000.0</v>
+        <v>-382712000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="F8" s="0" t="n">
+        <v>-405448000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-394506000.0</v>
@@ -1156,10 +1142,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>94408000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>104397000.0</v>
@@ -1285,10 +1269,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>-908696000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>-857097000.0</v>
@@ -1414,10 +1396,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>305743000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>408611000.0</v>
@@ -1543,10 +1523,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>212772000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>187856000.0</v>
@@ -1865,10 +1843,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-365127000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-355287000.0</v>
@@ -1994,10 +1970,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>-15868000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>-5603000.0</v>
@@ -2123,10 +2097,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>137520000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>235577000.0</v>
@@ -2252,10 +2224,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-168272000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-54208000.0</v>
@@ -2381,10 +2351,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>67223000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>121431000.0</v>
@@ -2510,10 +2478,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-101049000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>67223000.0</v>
@@ -2640,7 +2606,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-271289000.0</v>
+        <v>-367691000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-358634000.0</v>
@@ -2766,10 +2732,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>50722000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>29333000.0</v>
@@ -3072,10 +3036,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>212772000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>187856000.0</v>
@@ -3201,10 +3163,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>212772000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>187856000.0</v>
